--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A911CE25-7FE6-6345-9905-FE4C2D519722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1CBBA1-F8A6-1C42-A65B-ECF2561A121D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="11900" windowHeight="16340" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -457,7 +457,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D16" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D18" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
@@ -642,17 +642,42 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6805555555555536E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="B19" s="2"/>
+      <c r="A19" s="1">
+        <v>44570</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.4916666666666667</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
@@ -706,7 +731,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2">
         <f>SUM(D2:D28)</f>
-        <v>0.87152777777777779</v>
+        <v>0.94305555555555554</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1CBBA1-F8A6-1C42-A65B-ECF2561A121D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07690E3C-5883-4F40-AD7F-91B477DC2AEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +398,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -457,7 +458,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D18" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D20" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
@@ -678,13 +679,21 @@
       <c r="B19" s="2">
         <v>0.4916666666666667</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="2">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8749999999999978E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.43888888888888888</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="2"/>
@@ -729,9 +738,9 @@
     <row r="29" spans="1:4">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <f>SUM(D2:D28)</f>
-        <v>0.94305555555555554</v>
+        <v>1.0118055555555556</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07690E3C-5883-4F40-AD7F-91B477DC2AEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07E3780-506D-DF45-894F-F3A208841A50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -694,6 +694,13 @@
       <c r="B20" s="2">
         <v>0.43888888888888888</v>
       </c>
+      <c r="C20" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5416666666666696E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="2"/>
@@ -740,7 +747,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="3">
         <f>SUM(D2:D28)</f>
-        <v>1.0118055555555556</v>
+        <v>1.0972222222222223</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07E3780-506D-DF45-894F-F3A208841A50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F13B1B-1A43-4C46-B6C6-7D0B4AEC0C44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -458,7 +458,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D20" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D21" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
@@ -689,7 +689,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>44845</v>
+        <v>44572</v>
       </c>
       <c r="B20" s="2">
         <v>0.43888888888888888</v>
@@ -703,9 +703,19 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="2"/>
@@ -747,7 +757,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="3">
         <f>SUM(D2:D28)</f>
-        <v>1.0972222222222223</v>
+        <v>1.1805555555555558</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F13B1B-1A43-4C46-B6C6-7D0B4AEC0C44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A905CC6-F5B3-D84B-BF1B-D53B68F59B80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
@@ -79,7 +79,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -763,7 +763,7 @@
     <row r="30" spans="1:4">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A905CC6-F5B3-D84B-BF1B-D53B68F59B80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BC27FE-CF0E-AA47-A270-8AECAECEDFBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -718,9 +718,13 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="B22" s="2"/>
+      <c r="A22" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.57430555555555551</v>
+      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="2"/>

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BC27FE-CF0E-AA47-A270-8AECAECEDFBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE73290-955E-AF41-BD78-D5D4B712941A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -458,7 +458,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D21" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D23" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
@@ -724,12 +724,28 @@
       <c r="B22" s="2">
         <v>0.57430555555555551</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9861111111111116E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8749999999999933E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="2"/>
@@ -761,7 +777,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="3">
         <f>SUM(D2:D28)</f>
-        <v>1.1805555555555558</v>
+        <v>1.229166666666667</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE73290-955E-AF41-BD78-D5D4B712941A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243ACA6A-275C-E643-90AF-CBA30F8B4A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -458,7 +458,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D23" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D24" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
@@ -748,9 +748,19 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555525E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="2"/>
@@ -777,7 +787,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="3">
         <f>SUM(D2:D28)</f>
-        <v>1.229166666666667</v>
+        <v>1.2847222222222225</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243ACA6A-275C-E643-90AF-CBA30F8B4A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E361B11E-E3D2-4C43-9F66-8C6DA44C1724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -458,7 +458,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D24" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D27" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
@@ -763,19 +763,43 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5277777777777879E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="2">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>4.861111111111116E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="2"/>
@@ -787,7 +811,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="3">
         <f>SUM(D2:D28)</f>
-        <v>1.2847222222222225</v>
+        <v>1.3986111111111117</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E361B11E-E3D2-4C43-9F66-8C6DA44C1724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D588CCF8-3FD8-FA4B-918F-AC51ECAA0A1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
+    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,10 +395,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3BB817-8CDE-DD42-AEDD-F40082080526}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -458,7 +458,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D27" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D28" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
@@ -778,6 +778,9 @@
       </c>
     </row>
     <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>44607</v>
+      </c>
       <c r="B26" s="2">
         <v>0.53888888888888886</v>
       </c>
@@ -790,6 +793,9 @@
       </c>
     </row>
     <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>44607</v>
+      </c>
       <c r="B27" s="2">
         <v>0.62152777777777779</v>
       </c>
@@ -802,53 +808,140 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12291666666666667</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="3">
-        <f>SUM(D2:D28)</f>
-        <v>1.3986111111111117</v>
-      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>44249</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D32" s="2">
-        <f>SUM(C32-B32)</f>
-        <v>0.1527777777777779</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3">
+        <f>SUM(D2:D41)</f>
+        <v>1.5215277777777785</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D45" s="2">
+        <f>SUM(C45-B45)</f>
+        <v>0.1527777777777779</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D588CCF8-3FD8-FA4B-918F-AC51ECAA0A1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5551AD70-7283-964A-827C-C2EC266BC344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Jo work</t>
+  </si>
+  <si>
+    <t>Amount paid by Clear Music</t>
+  </si>
+  <si>
+    <t>Hours Paid for</t>
+  </si>
+  <si>
+    <t>Hours left</t>
   </si>
 </sst>
 </file>
@@ -75,11 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,15 +405,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3BB817-8CDE-DD42-AEDD-F40082080526}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="11" max="11" width="25.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>44249</v>
       </c>
@@ -432,7 +446,7 @@
         <v>7.3611111111111072E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>44405</v>
       </c>
@@ -447,7 +461,7 @@
         <v>6.8749999999999978E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>44406</v>
       </c>
@@ -458,11 +472,11 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D28" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D29" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>44406</v>
       </c>
@@ -477,7 +491,7 @@
         <v>6.1111111111111172E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>44406</v>
       </c>
@@ -492,7 +506,7 @@
         <v>4.9999999999999933E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>44410</v>
       </c>
@@ -507,7 +521,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>44410</v>
       </c>
@@ -522,7 +536,7 @@
         <v>7.6388888888888618E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>44410</v>
       </c>
@@ -537,7 +551,7 @@
         <v>6.5277777777777768E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>44411</v>
       </c>
@@ -552,7 +566,7 @@
         <v>8.1944444444444431E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>44416</v>
       </c>
@@ -567,7 +581,7 @@
         <v>5.1388888888888873E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>44416</v>
       </c>
@@ -582,7 +596,7 @@
         <v>7.7777777777777724E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>44417</v>
       </c>
@@ -596,8 +610,14 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>44417</v>
       </c>
@@ -611,8 +631,15 @@
         <f t="shared" si="0"/>
         <v>1.8750000000000044E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <f>L13/50</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>44418</v>
       </c>
@@ -626,8 +653,15 @@
         <f t="shared" si="0"/>
         <v>8.8194444444444409E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="4">
+        <f>L14-36.5</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>44559</v>
       </c>
@@ -823,10 +857,19 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5551AD70-7283-964A-827C-C2EC266BC344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6183570-BF10-024A-842A-05DD037B3BA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -656,10 +656,7 @@
       <c r="K15" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="4">
-        <f>L14-36.5</f>
-        <v>23.5</v>
-      </c>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
@@ -864,11 +861,11 @@
         <v>0.27291666666666664</v>
       </c>
       <c r="C29" s="2">
-        <v>0.27291666666666664</v>
+        <v>0.41180555555555554</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -947,7 +944,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="3">
         <f>SUM(D2:D41)</f>
-        <v>1.5215277777777785</v>
+        <v>1.6604166666666673</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6183570-BF10-024A-842A-05DD037B3BA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CC337F-4ADE-6F4F-B55E-CB49D1EDA9F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,8 +407,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -472,7 +472,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D29" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D31" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
@@ -869,16 +869,34 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1291666666666666</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1"/>
@@ -944,7 +962,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="3">
         <f>SUM(D2:D41)</f>
-        <v>1.6604166666666673</v>
+        <v>1.789583333333334</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CC337F-4ADE-6F4F-B55E-CB49D1EDA9F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374517AA-17DD-D341-A2DA-E31F4819B44B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
@@ -407,8 +407,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -891,11 +891,11 @@
         <v>0.375</v>
       </c>
       <c r="C31" s="2">
-        <v>0.375</v>
+        <v>0.5180555555555556</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1430555555555556</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -962,7 +962,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="3">
         <f>SUM(D2:D41)</f>
-        <v>1.789583333333334</v>
+        <v>1.9326388888888895</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374517AA-17DD-D341-A2DA-E31F4819B44B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5BEBDF-2560-524B-A688-A2FCE8B506D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
@@ -407,8 +407,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -472,7 +472,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D31" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D33" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
@@ -891,24 +891,42 @@
         <v>0.375</v>
       </c>
       <c r="C31" s="2">
-        <v>0.5180555555555556</v>
+        <v>0.53125</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>0.1430555555555556</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1333333333333333</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777846E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1"/>
@@ -962,7 +980,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="3">
         <f>SUM(D2:D41)</f>
-        <v>1.9326388888888895</v>
+        <v>2.1069444444444452</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5BEBDF-2560-524B-A688-A2FCE8B506D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA050254-08C9-944F-9593-D5FE04F816BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -921,11 +921,11 @@
         <v>0.4145833333333333</v>
       </c>
       <c r="C33" s="2">
-        <v>0.44236111111111115</v>
+        <v>0.58819444444444446</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>2.7777777777777846E-2</v>
+        <v>0.17361111111111116</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -980,7 +980,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="3">
         <f>SUM(D2:D41)</f>
-        <v>2.1069444444444452</v>
+        <v>2.2527777777777787</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA050254-08C9-944F-9593-D5FE04F816BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C11CEBD-E178-EF42-903C-EAE9A18AF912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
+    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,8 +406,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -472,7 +471,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D33" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D36" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
@@ -595,6 +594,9 @@
         <f t="shared" si="0"/>
         <v>7.7777777777777724E-2</v>
       </c>
+      <c r="L12" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
@@ -656,7 +658,10 @@
       <c r="K15" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="3">
+        <f>L12-D42</f>
+        <v>0.15694444444444411</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
@@ -929,22 +934,49 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888888888884E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9444444444444486E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>3.819444444444442E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1"/>
@@ -980,7 +1012,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="3">
         <f>SUM(D2:D41)</f>
-        <v>2.2527777777777787</v>
+        <v>2.3430555555555559</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C11CEBD-E178-EF42-903C-EAE9A18AF912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3065008F-3884-6B42-9CA4-B4CC12AC13CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
@@ -406,8 +406,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -471,7 +471,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D36" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D38" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="L15" s="3">
         <f>L12-D42</f>
-        <v>0.15694444444444411</v>
+        <v>1.1805555555555181E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -979,16 +979,34 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10208333333333341</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3055555555555514E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1"/>
@@ -1012,7 +1030,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="3">
         <f>SUM(D2:D41)</f>
-        <v>2.3430555555555559</v>
+        <v>2.4881944444444448</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3065008F-3884-6B42-9CA4-B4CC12AC13CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C059D10-8B37-154F-8B7A-DF229E19B491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -49,14 +49,37 @@
   </si>
   <si>
     <t>Hours left</t>
+  </si>
+  <si>
+    <t>$1000 paid in May 2022 for another 20 hours work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total hours Paid for </t>
+  </si>
+  <si>
+    <t>46 mins already done</t>
+  </si>
+  <si>
+    <t>Hours complete</t>
+  </si>
+  <si>
+    <t>hours left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,11 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,14 +428,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3BB817-8CDE-DD42-AEDD-F40082080526}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
     <col min="11" max="11" width="25.1640625" customWidth="1"/>
     <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -471,7 +496,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D38" si="0">SUM(C4-B4)</f>
+        <f t="shared" ref="D4:D39" si="0">SUM(C4-B4)</f>
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
@@ -660,7 +685,7 @@
       </c>
       <c r="L15" s="3">
         <f>L12-D42</f>
-        <v>1.1805555555555181E-2</v>
+        <v>-3.1944444444444997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -918,7 +943,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>44635</v>
       </c>
@@ -933,7 +958,7 @@
         <v>0.17361111111111116</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>44644</v>
       </c>
@@ -948,7 +973,7 @@
         <v>3.2638888888888884E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>44644</v>
       </c>
@@ -963,7 +988,7 @@
         <v>1.9444444444444486E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>44644</v>
       </c>
@@ -978,7 +1003,7 @@
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>44645</v>
       </c>
@@ -993,7 +1018,7 @@
         <v>0.10208333333333341</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>44645</v>
       </c>
@@ -1008,37 +1033,46 @@
         <v>4.3055555555555514E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4">
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>44667</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3750000000000011E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:9">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:9">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3">
         <f>SUM(D2:D41)</f>
-        <v>2.4881944444444448</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>2.531944444444445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1080,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>44249</v>
       </c>
@@ -1061,13 +1095,61 @@
         <v>0.1527777777777779</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:9">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="48" spans="1:9">
+      <c r="A48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>44710</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.8965277777777777</v>
+      </c>
+      <c r="D49" s="2">
+        <f>C49-B49</f>
+        <v>8.8888888888888795E-2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="2">
+        <v>3.1944444444444449E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="D50" s="2"/>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="2">
+        <f>SUM(D49:D69,I49)</f>
+        <v>0.12083333333333324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="2">
+        <f>I48-I50</f>
+        <v>0.71250000000000013</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C059D10-8B37-154F-8B7A-DF229E19B491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD6556A-6EF6-9241-936E-8CE4C5F4D794}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16460" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="A50" sqref="A50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1133,6 +1133,8 @@
       </c>
     </row>
     <row r="50" spans="1:9">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
       <c r="D50" s="2"/>
       <c r="H50" t="s">
         <v>11</v>

--- a/Clear Music Time log 2021.xlsx
+++ b/Clear Music Time log 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keirenbrandt-sawdy/Documents/GitHub/Clearmusic-Publisher-Databases/Edited Files 28.07.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD6556A-6EF6-9241-936E-8CE4C5F4D794}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF5E73-1305-5044-8F00-751D7AD242E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16460" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="17660" windowHeight="20020" xr2:uid="{546236D5-CC86-8E4E-BE32-7FD0F061102B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,10 +428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3BB817-8CDE-DD42-AEDD-F40082080526}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D50"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1133,24 +1133,74 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="A50" s="1">
+        <v>44717</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D50" s="2">
+        <f>C50-B50</f>
+        <v>3.6805555555555536E-2</v>
+      </c>
       <c r="H50" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="2">
         <f>SUM(D49:D69,I49)</f>
-        <v>0.12083333333333324</v>
+        <v>0.2430555555555553</v>
       </c>
     </row>
     <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>44717</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="D51" s="2">
+        <f>C51-B51</f>
+        <v>8.3333333333333037E-3</v>
+      </c>
       <c r="H51" t="s">
         <v>12</v>
       </c>
       <c r="I51" s="2">
         <f>I48-I50</f>
-        <v>0.71250000000000013</v>
+        <v>0.59027777777777812</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="D52" s="2">
+        <f>C52-B52</f>
+        <v>5.0694444444444375E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="D53" s="2">
+        <f>C53-B53</f>
+        <v>2.6388888888888851E-2</v>
       </c>
     </row>
   </sheetData>
